--- a/app/Recursos Marcas/Owl Rose/Plantilla Carga Masiva.xlsx
+++ b/app/Recursos Marcas/Owl Rose/Plantilla Carga Masiva.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joel/Documents/Molova/molova_api/app/Recursos Marcas/Owl Rose/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B8C18-27E5-BF48-9D6C-AF281562B519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="6" r:id="rId1"/>
@@ -38,15 +39,6 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -871,20 +863,20 @@
     <t xml:space="preserve">Collar en acero completamente con dijes en acero y en rodio </t>
   </si>
   <si>
-    <t xml:space="preserve">libertad </t>
-  </si>
-  <si>
     <t>collar en acero completamente con cadena y dije de candado rodinado en acero</t>
   </si>
   <si>
     <t>Collar en perlas con dije en acero y cadena con dije corazon compleatamente en acero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertad </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,40 +1415,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1"/>
+    <row r="8" spans="1:5" ht="17" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="33" thickBot="1">
       <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33" thickBot="1">
       <c r="B10" s="9" t="s">
         <v>69</v>
       </c>
@@ -1498,7 +1490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33" thickBot="1">
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
@@ -1512,7 +1504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
@@ -1526,7 +1518,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16">
       <c r="B13" s="21" t="s">
         <v>57</v>
       </c>
@@ -1540,7 +1532,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="17" thickBot="1">
       <c r="B14" s="22"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
@@ -1548,7 +1540,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="33" thickBot="1">
       <c r="B15" s="9" t="s">
         <v>74</v>
       </c>
@@ -1562,7 +1554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" thickBot="1">
       <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49" thickBot="1">
       <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
@@ -1588,7 +1580,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="49" thickBot="1">
       <c r="B18" s="9" t="s">
         <v>109</v>
       </c>
@@ -1602,193 +1594,193 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
         <v>103</v>
       </c>
@@ -1804,33 +1796,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1874,7 +1866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>141</v>
       </c>
@@ -1906,12 +1898,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>40000</v>
@@ -1932,7 +1924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>144</v>
       </c>
@@ -1955,7 +1947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>146</v>
       </c>
@@ -1978,12 +1970,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
       </c>
       <c r="D6">
         <v>50000</v>
@@ -2004,39 +1996,39 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita el código único con el que identificas este producto" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Digita el nombre del producto que deseas que se muestre en las Plataformas Molova" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita la descripción del producto que deseas que se muestre en las Plataformas Molova" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Digita el precio base del producto" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita el precio con descuento (en caso que aplique) que deseas que se muestre en las Plataformas Molova" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge la categoría que mejor defina tu producto" sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge la subcategoría que mejor defina tu producto" sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el primer color en el que está disponible tu producto " sqref="L1 I1:J1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el tercer color en el que está disponible tu producto " sqref="K1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el quinto color en el que está disponible tu producto " sqref="M1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el sexto color en el que está disponible tu producto " sqref="N1"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La Referencia ha sido usada anteriormente" sqref="A2:A1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita el código único con el que identificas este producto" sqref="A1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Digita el nombre del producto que deseas que se muestre en las Plataformas Molova" sqref="B1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita la descripción del producto que deseas que se muestre en las Plataformas Molova" sqref="C1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Digita el precio base del producto" sqref="D1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Digita el precio con descuento (en caso que aplique) que deseas que se muestre en las Plataformas Molova" sqref="E1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge la categoría que mejor defina tu producto" sqref="F1" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoge la subcategoría que mejor defina tu producto" sqref="G1" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el primer color en el que está disponible tu producto " sqref="L1 I1:J1" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el tercer color en el que está disponible tu producto " sqref="K1" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el quinto color en el que está disponible tu producto " sqref="M1" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Escoge el sexto color en el que está disponible tu producto " sqref="N1" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La Referencia ha sido usada anteriormente" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>COUNTIF($A$2:A2,A2)=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Este nombre de producto ha sido usado anteriormente" sqref="B2:B1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Este nombre de producto ha sido usado anteriormente" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>COUNTIF($B$2:B2,B2)=1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Es el link directo al producto en tu página web" sqref="H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No es obligatorio" prompt="Es el link directo al producto en tu página web" sqref="H1" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>'Guía Categorías'!$A$1:$I$1</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
           <x14:formula1>
             <xm:f>'Guía Categorías'!$J$2:$J$16</xm:f>
           </x14:formula1>
@@ -2049,23 +2041,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2097,7 +2089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +2173,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2198,7 +2190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -2209,7 +2201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="I8" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="I9" t="s">
         <v>38</v>
       </c>
@@ -2236,7 +2228,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="I10" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="I11" t="s">
         <v>40</v>
       </c>
@@ -2252,33 +2244,33 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="J12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="J13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="J14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="J15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="J16" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="J2:J16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J16">
     <sortCondition ref="J2:J16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
